--- a/medicine/Sexualité et sexologie/One,_Two,_Two___122,_rue_de_Provence/One,_Two,_Two___122,_rue_de_Provence.xlsx
+++ b/medicine/Sexualité et sexologie/One,_Two,_Two___122,_rue_de_Provence/One,_Two,_Two___122,_rue_de_Provence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">One, Two, Two : 122, rue de Provence est un film français de Christian Gion sorti en 1978.
-Ce film est l'adaptation de l'autobiographie de la dernière tenancière du One-Two-Two : Fabienne Jamet[1].
+Ce film est l'adaptation de l'autobiographie de la dernière tenancière du One-Two-Two : Fabienne Jamet.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le One-two-two (« un deux deux » en anglais), établi au 122, rue de Provence à Paris, fut une des plus luxueuses maisons closes de Paris. Le film en relate le quotidien riche en événements.
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : One, Two, Two : 122, rue de Provence
 Réalisation : Christian Gion, assisté de  Stéphane Loison
@@ -587,7 +603,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Nicole Calfan : Georgette / Fabienne
 Francis Huster : Paul
